--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Society Name</t>
   </si>
@@ -60,25 +55,13 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>400</t>
   </si>
   <si>
     <t>No, FLASCO does not encompass community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
@@ -213,16 +196,13 @@
   </si>
   <si>
     <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,14 +265,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,16 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,179 +594,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>1100</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>554</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Society Name</t>
   </si>
@@ -55,13 +60,25 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
   <si>
     <t>No, FLASCO does not encompass community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
@@ -196,13 +213,16 @@
   </si>
   <si>
     <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +285,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +371,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +582,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,179 +626,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>1100</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>1000</v>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J4" t="s">
         <v>57</v>
       </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I6" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>554</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Society Name</t>
   </si>
@@ -60,25 +55,13 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>400</t>
   </si>
   <si>
     <t>No, FLASCO does not encompass community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
@@ -213,16 +196,13 @@
   </si>
   <si>
     <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,14 +265,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,16 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,179 +594,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>970</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>970</v>
+        <v>750</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>492</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,9 +60,6 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
@@ -196,13 +198,16 @@
   </si>
   <si>
     <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,179 +611,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>330</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,6 +55,9 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
@@ -198,16 +196,13 @@
   </si>
   <si>
     <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +265,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,16 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,179 +594,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,9 +60,6 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
@@ -196,13 +198,16 @@
   </si>
   <si>
     <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,179 +611,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>850</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,6 +55,9 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
@@ -198,16 +196,13 @@
   </si>
   <si>
     <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +265,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,16 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,179 +594,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>900</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,9 +60,6 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
@@ -196,13 +198,16 @@
   </si>
   <si>
     <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,179 +611,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,6 +55,9 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
@@ -198,16 +196,13 @@
   </si>
   <si>
     <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +265,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,16 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,179 +594,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>235</v>
+        <v>650</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,9 +60,6 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
@@ -196,13 +198,16 @@
   </si>
   <si>
     <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,179 +611,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>343</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -66,9 +66,6 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>No, FLASCO does not encompass community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
   </si>
   <si>
-    <t>No, FLASCO is a professional organization focused on clinical oncology and does not play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
   </si>
   <si>
     <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida, but they do not directly support clinical trial recruitment.</t>
   </si>
   <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
@@ -173,9 +164,6 @@
     <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
   </si>
   <si>
-    <t>No, The FLASCO board does not include top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
     <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
   </si>
   <si>
@@ -201,6 +189,18 @@
   </si>
   <si>
     <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,34 +616,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>4100</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -651,69 +651,69 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -721,34 +721,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>176</v>
+        <v>1760</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -756,34 +756,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Society Name</t>
   </si>
@@ -60,12 +55,21 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
@@ -78,6 +82,12 @@
     <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
   </si>
   <si>
+    <t>Yes, many community sites fall within the scope of the term "encompasses."</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
@@ -90,6 +100,9 @@
     <t>No, MOASC is a professional organization focused on education and advocacy for medical oncologists in Southern California, not a policy-making entity.</t>
   </si>
   <si>
+    <t>No, local policies are typically influenced by local factors such as community needs and demographics rather than on a national scale.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
@@ -105,6 +118,12 @@
     <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
   </si>
   <si>
+    <t>Yes, providing engagement opportunity with leadership is important for fostering a strong organizational culture and promoting employee development.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
   </si>
   <si>
@@ -117,6 +136,9 @@
     <t>No, MOASC does not provide support for clinical trial recruitment. , MOASC primarily focuses on education, advocacy, and networking within the field of medical oncology in Southern California.</t>
   </si>
   <si>
+    <t>Yes,  ClinicalTrials.gov does provide support for clinical trial recruitment by allowing researchers to register their trials and make them visible to participants searching for studies to participate in.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
   </si>
   <si>
@@ -130,6 +152,9 @@
   </si>
   <si>
     <t>No, MOASC does not directly provide engagement opportunities with payors. The organization primarily focuses on education, advocacy, and networking for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, providing engagement opportunities with payors allows for better communication and understanding of payment processes.</t>
   </si>
   <si>
     <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
@@ -149,6 +174,9 @@
 MOASC includes area experts on its board. This can be evidenced by their leadership roles within the organization and their reputation in the field of medical oncology.</t>
   </si>
   <si>
+    <t>No, The board of does not include area experts because it consists mainly of industry professionals.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
   </si>
   <si>
@@ -164,6 +192,12 @@
     <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
   </si>
   <si>
+    <t>No, they are focused on individual research projects within the organization.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
   </si>
   <si>
@@ -176,6 +210,9 @@
     <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
   </si>
   <si>
+    <t>No, the board does not include top therapeutic area experts. The board members may have expertise in other areas or fields, but do not specifically specialize in therapeutic areas.</t>
+  </si>
+  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -188,26 +225,14 @@
     <t>Southern California.</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+    <t>South America</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +295,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +373,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +407,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,16 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,179 +624,211 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4100</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
         <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3200</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>1200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1760</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>4000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Society Name</t>
   </si>
@@ -64,7 +64,7 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>100</t>
+    <t>500</t>
   </si>
   <si>
     <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
@@ -85,6 +85,9 @@
     <t>Yes, many community sites fall within the scope of the term "encompasses."</t>
   </si>
   <si>
+    <t>Yes, community sites provide a platform for users to come together and interact.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>No, local policies are typically influenced by local factors such as community needs and demographics rather than on a national scale.</t>
   </si>
   <si>
+    <t>Yes, research, Research can provide evidence and data to policymakers that can influence the development of state or local policies.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>Yes, providing engagement opportunity with leadership is important for fostering a strong organizational culture and promoting employee development.</t>
   </si>
   <si>
+    <t>Yes, it allows for interaction and open communication with leaders.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>Yes,  ClinicalTrials.gov does provide support for clinical trial recruitment by allowing researchers to register their trials and make them visible to participants searching for studies to participate in.</t>
   </si>
   <si>
+    <t>Yes, the platform can target specific patient populations and help streamline the recruitment process.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
   </si>
   <si>
@@ -155,6 +167,9 @@
   </si>
   <si>
     <t>Yes, providing engagement opportunities with payors allows for better communication and understanding of payment processes.</t>
+  </si>
+  <si>
+    <t>Yes, it allows for direct interaction and collaboration with payors.</t>
   </si>
   <si>
     <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
@@ -177,6 +192,9 @@
     <t>No, The board of does not include area experts because it consists mainly of industry professionals.</t>
   </si>
   <si>
+    <t>No, the board does not include area experts. Justification: lack of specific knowledge or expertise in the relevant field.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
   </si>
   <si>
@@ -195,6 +213,10 @@
     <t>No, they are focused on individual research projects within the organization.</t>
   </si>
   <si>
+    <t>Yes, 
+There are many pharmaceutical companies and research organizations involved in therapeutic research collaborations to advance medical knowledge and improve patient outcomes.</t>
+  </si>
+  <si>
     <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
   </si>
   <si>
@@ -213,6 +235,9 @@
     <t>No, the board does not include top therapeutic area experts. The board members may have expertise in other areas or fields, but do not specifically specialize in therapeutic areas.</t>
   </si>
   <si>
+    <t>No, there are no top therapeutic area experts on the board. This can be seen from the lack of expert professionals in the field serving on the board.</t>
+  </si>
+  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -226,6 +251,9 @@
   </si>
   <si>
     <t>South America</t>
+  </si>
+  <si>
+    <t>Asia.</t>
   </si>
 </sst>
 </file>
@@ -583,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,34 +657,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -664,34 +692,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -699,34 +727,34 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -734,34 +762,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -769,66 +797,98 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>16</v>
+      <c r="B7">
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Society Name</t>
   </si>
@@ -64,7 +64,7 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>500</t>
+    <t>1000</t>
   </si>
   <si>
     <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
@@ -88,6 +88,9 @@
     <t>Yes, community sites provide a platform for users to come together and interact.</t>
   </si>
   <si>
+    <t>Yes, Many community sites fall under the category of social media.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>Yes, research, Research can provide evidence and data to policymakers that can influence the development of state or local policies.</t>
   </si>
   <si>
+    <t>No, limited reach of impact on state or local policy.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>Yes, it allows for interaction and open communication with leaders.</t>
   </si>
   <si>
+    <t>Yes, it can foster open communication and collaboration.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t>Yes, the platform can target specific patient populations and help streamline the recruitment process.</t>
   </si>
   <si>
+    <t>Yes,  ClinicalTrials.gov provides support for clinical trial recruitment by offering a centralized database of publicly and privately funded clinical studies to help patients and researchers find relevant trials.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
   </si>
   <si>
@@ -170,6 +182,9 @@
   </si>
   <si>
     <t>Yes, it allows for direct interaction and collaboration with payors.</t>
+  </si>
+  <si>
+    <t>Yes, providing engagement opportunities with payors is essential for building strong relationships and ensuring smooth payment processes.</t>
   </si>
   <si>
     <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
@@ -195,6 +210,9 @@
     <t>No, the board does not include area experts. Justification: lack of specific knowledge or expertise in the relevant field.</t>
   </si>
   <si>
+    <t>No, there is no information available about the expertise of the board members.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
   </si>
   <si>
@@ -217,6 +235,9 @@
 There are many pharmaceutical companies and research organizations involved in therapeutic research collaborations to advance medical knowledge and improve patient outcomes.</t>
   </si>
   <si>
+    <t>Yes, Promoting the development of new therapies to improve patient outcomes.</t>
+  </si>
+  <si>
     <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
   </si>
   <si>
@@ -236,6 +257,9 @@
   </si>
   <si>
     <t>No, there are no top therapeutic area experts on the board. This can be seen from the lack of expert professionals in the field serving on the board.</t>
+  </si>
+  <si>
+    <t>No, The board does not include top therapeutic area experts because it consists primarily of industry leaders and financial experts.</t>
   </si>
   <si>
     <t>Florida</t>
@@ -611,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,34 +681,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -692,34 +716,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -727,34 +751,34 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -762,34 +786,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -797,34 +821,34 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>750</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -835,60 +859,92 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8">
+        <v>500</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
         <v>72</v>
       </c>
-      <c r="K8" t="s">
-        <v>78</v>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Society Name</t>
   </si>
@@ -55,21 +60,12 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
@@ -82,18 +78,6 @@
     <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
   </si>
   <si>
-    <t>Yes, many community sites fall within the scope of the term "encompasses."</t>
-  </si>
-  <si>
-    <t>Yes, community sites provide a platform for users to come together and interact.</t>
-  </si>
-  <si>
-    <t>Yes, Many community sites fall under the category of social media.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
@@ -106,15 +90,6 @@
     <t>No, MOASC is a professional organization focused on education and advocacy for medical oncologists in Southern California, not a policy-making entity.</t>
   </si>
   <si>
-    <t>No, local policies are typically influenced by local factors such as community needs and demographics rather than on a national scale.</t>
-  </si>
-  <si>
-    <t>Yes, research, Research can provide evidence and data to policymakers that can influence the development of state or local policies.</t>
-  </si>
-  <si>
-    <t>No, limited reach of impact on state or local policy.</t>
-  </si>
-  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
@@ -130,18 +105,6 @@
     <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
   </si>
   <si>
-    <t>Yes, providing engagement opportunity with leadership is important for fostering a strong organizational culture and promoting employee development.</t>
-  </si>
-  <si>
-    <t>Yes, it allows for interaction and open communication with leaders.</t>
-  </si>
-  <si>
-    <t>Yes, it can foster open communication and collaboration.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
   </si>
   <si>
@@ -154,15 +117,6 @@
     <t>No, MOASC does not provide support for clinical trial recruitment. , MOASC primarily focuses on education, advocacy, and networking within the field of medical oncology in Southern California.</t>
   </si>
   <si>
-    <t>Yes,  ClinicalTrials.gov does provide support for clinical trial recruitment by allowing researchers to register their trials and make them visible to participants searching for studies to participate in.</t>
-  </si>
-  <si>
-    <t>Yes, the platform can target specific patient populations and help streamline the recruitment process.</t>
-  </si>
-  <si>
-    <t>Yes,  ClinicalTrials.gov provides support for clinical trial recruitment by offering a centralized database of publicly and privately funded clinical studies to help patients and researchers find relevant trials.</t>
-  </si>
-  <si>
     <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
   </si>
   <si>
@@ -176,15 +130,6 @@
   </si>
   <si>
     <t>No, MOASC does not directly provide engagement opportunities with payors. The organization primarily focuses on education, advocacy, and networking for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, providing engagement opportunities with payors allows for better communication and understanding of payment processes.</t>
-  </si>
-  <si>
-    <t>Yes, it allows for direct interaction and collaboration with payors.</t>
-  </si>
-  <si>
-    <t>Yes, providing engagement opportunities with payors is essential for building strong relationships and ensuring smooth payment processes.</t>
   </si>
   <si>
     <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
@@ -204,15 +149,6 @@
 MOASC includes area experts on its board. This can be evidenced by their leadership roles within the organization and their reputation in the field of medical oncology.</t>
   </si>
   <si>
-    <t>No, The board of does not include area experts because it consists mainly of industry professionals.</t>
-  </si>
-  <si>
-    <t>No, the board does not include area experts. Justification: lack of specific knowledge or expertise in the relevant field.</t>
-  </si>
-  <si>
-    <t>No, there is no information available about the expertise of the board members.</t>
-  </si>
-  <si>
     <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
   </si>
   <si>
@@ -228,63 +164,50 @@
     <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
   </si>
   <si>
-    <t>No, they are focused on individual research projects within the organization.</t>
-  </si>
-  <si>
-    <t>Yes, 
-There are many pharmaceutical companies and research organizations involved in therapeutic research collaborations to advance medical knowledge and improve patient outcomes.</t>
-  </si>
-  <si>
-    <t>Yes, Promoting the development of new therapies to improve patient outcomes.</t>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
   </si>
   <si>
     <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>No, the board does not include top therapeutic area experts. The board members may have expertise in other areas or fields, but do not specifically specialize in therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, there are no top therapeutic area experts on the board. This can be seen from the lack of expert professionals in the field serving on the board.</t>
-  </si>
-  <si>
-    <t>No, The board does not include top therapeutic area experts because it consists primarily of industry leaders and financial experts.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Southern California.</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Asia.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,14 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,275 +611,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>4100</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1760</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
       <c r="K6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8">
-        <v>500</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,12 +55,18 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
@@ -78,6 +79,9 @@
     <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
   </si>
   <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
@@ -103,6 +107,9 @@
   </si>
   <si>
     <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
   </si>
   <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
@@ -164,6 +171,9 @@
     <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
   </si>
   <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
   </si>
   <si>
@@ -186,28 +196,13 @@
   </si>
   <si>
     <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +265,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,16 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,179 +594,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4100</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B6">
+        <v>285</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
-        <v>1200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1760</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>4000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>900</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,18 +60,12 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
@@ -79,9 +78,6 @@
     <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
   </si>
   <si>
     <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
   </si>
   <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
@@ -171,38 +164,50 @@
     <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
   </si>
   <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
     <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Southern California.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,179 +611,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>450</v>
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1760</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>450</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,12 +55,18 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
@@ -78,6 +79,9 @@
     <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
   </si>
   <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
@@ -103,6 +107,9 @@
   </si>
   <si>
     <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
   </si>
   <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
@@ -164,6 +171,9 @@
     <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
   </si>
   <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
   </si>
   <si>
@@ -186,28 +196,13 @@
   </si>
   <si>
     <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +265,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,16 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -619,171 +602,171 @@
         <v>4100</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3200</v>
+        <v>700</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
-        <v>1200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1760</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>4000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,18 +60,12 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
     <t>IOWA Oncology Society</t>
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
@@ -79,9 +78,6 @@
     <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
   </si>
   <si>
     <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
   </si>
   <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
@@ -171,38 +164,50 @@
     <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
   </si>
   <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Southern California.</t>
+  </si>
+  <si>
+    <t>IOS (Indiana Oncology Society)</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
     <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Southern California.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -602,171 +619,171 @@
         <v>4100</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1760</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Society Name</t>
   </si>
@@ -60,147 +60,179 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>IOWA Oncology Society</t>
-  </si>
-  <si>
-    <t>MOASC (Medical Oncology Association of Southern California)</t>
-  </si>
-  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
-    <t>No, IOS primarily focuses on academic and research institutions ,although it may collaborate with community sites on specific projects or initiatives.</t>
-  </si>
-  <si>
-    <t>No, IOWA Oncology Society focuses on academic centers, as mentioned on their official website.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
-  </si>
-  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
-    <t>No, IOS is primarily focused on advancing education, research, and the practice of oncology in Indiana, rather than on influencing policy.</t>
-  </si>
-  <si>
-    <t>No, lack of public information or evidence of direct policy influence.</t>
-  </si>
-  <si>
-    <t>No, MOASC is a professional organization focused on education and advocacy for medical oncologists in Southern California, not a policy-making entity.</t>
-  </si>
-  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
     <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
   </si>
   <si>
-    <t>Yes, IOS provides engagement opportunities with leadership. This is because the organization values input and involvement from its members in decision-making processes and strategic planning.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society provides engagement opportunities with leadership through networking events, conferences, and mentorship programs.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
-  </si>
-  <si>
     <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
   </si>
   <si>
-    <t>Yes, IOS offers educational resources and conferences on clinical trials, but does not directly provide recruitment support.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not provide support for clinical trial recruitment. , MOASC primarily focuses on education, advocacy, and networking within the field of medical oncology in Southern California.</t>
-  </si>
-  <si>
     <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
   </si>
   <si>
     <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
   </si>
   <si>
-    <t>Yes, IOS provides engagement opportunities with payors, as part of their mission to improve oncology care and communication with key stakeholders.</t>
-  </si>
-  <si>
-    <t>No, they do not. The IOWA Oncology Society is a professional organization focused on promoting high-quality oncology care in Iowa and providing education and networking opportunities for their members. They do not directly engage with payors.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not directly provide engagement opportunities with payors. The organization primarily focuses on education, advocacy, and networking for medical oncologists in Southern California.</t>
-  </si>
-  <si>
     <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
   </si>
   <si>
     <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
   </si>
   <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
+    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>WVOS (West Virginia Oncology Society)</t>
+  </si>
+  <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
+  </si>
+  <si>
+    <t>Appalachia</t>
+  </si>
+  <si>
+    <t>DSCO (Delaware Society of Clinical Oncology)OSNJ (Oncology Society of New Jersey)</t>
+  </si>
+  <si>
+    <t>No, neither organization encompasses community sites. Both organizations are focused on clinical oncology and do not specifically include community sites in their mission or membership.</t>
+  </si>
+  <si>
+    <t>No, DSCO and OSNJ are educational and advocacy organizations but do not have direct influence on state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, both organizations provide engagement opportunities with leadership. They offer events, conferences, and networking opportunities for members to interact and collaborate with leadership in the field of clinical oncology.</t>
+  </si>
+  <si>
+    <t>No, resource limitations.</t>
+  </si>
+  <si>
+    <t>No, Lack of information on their websites about engagement with payors.</t>
+  </si>
+  <si>
     <t>Yes, 
-The Indiana Oncology Society includes area experts on its board to ensure that decisions and advancements within the field of oncology are informed and guided by reputable professionals.</t>
-  </si>
-  <si>
-    <t>No, the IOWA Oncology Society does not include area experts on its board. The organization primarily consists of oncologists and healthcare professionals related to oncology.</t>
-  </si>
-  <si>
-    <t>Yes, 
-MOASC includes area experts on its board. This can be evidenced by their leadership roles within the organization and their reputation in the field of medical oncology.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS does not have involvement in therapeutic research collaborations. The society focuses on education, advocacy, and networking for oncology professionals in Indiana.</t>
-  </si>
-  <si>
-    <t>Yes, The IOWA Oncology Society is involved in therapeutic research collaborations. They work with various organizations and institutions to advance cancer treatment options.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Southern California.</t>
-  </si>
-  <si>
-    <t>IOS (Indiana Oncology Society)</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+Both DSCO and OSNJ include area experts on their boards, as they are both organizations dedicated to clinical oncology and would benefit from the expertise of professionals in the field.</t>
+  </si>
+  <si>
+    <t>No, there is no evidence of collaborative therapeutic research efforts between DSCO and OSNJ.</t>
+  </si>
+  <si>
+    <t>Yes, both DSCO and OSNJ include top therapeutic area experts on their boards. This can be seen through the organizations' commitment to advancing oncology through education, research, and advocacy.</t>
+  </si>
+  <si>
+    <t>Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not encompass community sites as it is specifically focused on hematology and oncology practices in New York's academic institutions.</t>
+  </si>
+  <si>
+    <t>No, ESHOS is focused on education and research rather than policy advocacy.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides engagement opportunities with leadership. The society offers various networking events, conferences, and educational programs where members can interact and engage with leaders in the field of hematology and oncology.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide support for clinical trial recruitment. , ESHOS primarily focuses on professional development and education rather than patient recruitment for trials.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS primarily focuses on networking and education for hematology and oncology professionals, rather than engaging with payors for reimbursement or coverage discussions.</t>
+  </si>
+  <si>
+    <t>Yes, many board members are experts in their respective fields of hematology and oncology, and contribute valuable insight and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS is involved in therapeutic research collaborations. This can be seen through their participation in clinical trials and other research initiatives.</t>
+  </si>
+  <si>
+    <t>No, The board of ESHOS does not include top therapeutic area experts, as it is a society focused on promoting collaboration and education among hematology and oncology professionals.</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
@@ -259,10 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,31 +654,31 @@
         <v>4100</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -654,136 +689,171 @@
         <v>3200</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>1760</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Society Name</t>
   </si>
@@ -174,65 +174,106 @@
     <t>Appalachia</t>
   </si>
   <si>
-    <t>DSCO (Delaware Society of Clinical Oncology)OSNJ (Oncology Society of New Jersey)</t>
-  </si>
-  <si>
-    <t>No, neither organization encompasses community sites. Both organizations are focused on clinical oncology and do not specifically include community sites in their mission or membership.</t>
-  </si>
-  <si>
-    <t>No, DSCO and OSNJ are educational and advocacy organizations but do not have direct influence on state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, both organizations provide engagement opportunities with leadership. They offer events, conferences, and networking opportunities for members to interact and collaborate with leadership in the field of clinical oncology.</t>
-  </si>
-  <si>
-    <t>No, resource limitations.</t>
-  </si>
-  <si>
-    <t>No, Lack of information on their websites about engagement with payors.</t>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>DSCO (Delaware Society of Clinical Oncology)</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, 
+DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
+  </si>
+  <si>
+    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
+  </si>
+  <si>
+    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
+  </si>
+  <si>
+    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>No, the DSCO may not include top therapeutic area experts on its board.
+Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
+  </si>
+  <si>
+    <t>Delaware.</t>
+  </si>
+  <si>
+    <t>OSNJ (Oncology Society of New Jersey)</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
+  </si>
+  <si>
+    <t>Northeast.</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>Yes, 
-Both DSCO and OSNJ include area experts on their boards, as they are both organizations dedicated to clinical oncology and would benefit from the expertise of professionals in the field.</t>
-  </si>
-  <si>
-    <t>No, there is no evidence of collaborative therapeutic research efforts between DSCO and OSNJ.</t>
-  </si>
-  <si>
-    <t>Yes, both DSCO and OSNJ include top therapeutic area experts on their boards. This can be seen through the organizations' commitment to advancing oncology through education, research, and advocacy.</t>
-  </si>
-  <si>
-    <t>Mid-Atlantic</t>
-  </si>
-  <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not encompass community sites as it is specifically focused on hematology and oncology practices in New York's academic institutions.</t>
-  </si>
-  <si>
-    <t>No, ESHOS is focused on education and research rather than policy advocacy.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS provides engagement opportunities with leadership. The society offers various networking events, conferences, and educational programs where members can interact and engage with leaders in the field of hematology and oncology.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide support for clinical trial recruitment. , ESHOS primarily focuses on professional development and education rather than patient recruitment for trials.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS primarily focuses on networking and education for hematology and oncology professionals, rather than engaging with payors for reimbursement or coverage discussions.</t>
-  </si>
-  <si>
-    <t>Yes, many board members are experts in their respective fields of hematology and oncology, and contribute valuable insight and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS is involved in therapeutic research collaborations. This can be seen through their participation in clinical trials and other research initiatives.</t>
-  </si>
-  <si>
-    <t>No, The board of ESHOS does not include top therapeutic area experts, as it is a society focused on promoting collaboration and education among hematology and oncology professionals.</t>
-  </si>
-  <si>
-    <t>New York</t>
+The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
+  </si>
+  <si>
+    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
+  </si>
+  <si>
+    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
 </sst>
 </file>
@@ -296,9 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,73 +826,108 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
         <v>60</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>296</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
+      <c r="G7" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>10000</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Society Name</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>DSCO (Delaware Society of Clinical Oncology)</t>
-  </si>
-  <si>
-    <t>104</t>
   </si>
   <si>
     <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
@@ -218,9 +215,6 @@
     <t>OSNJ (Oncology Society of New Jersey)</t>
   </si>
   <si>
-    <t>649</t>
-  </si>
-  <si>
     <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
   </si>
   <si>
     <t>Northeast.</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
   <si>
     <t>Yes, 
@@ -645,7 +636,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,7 +786,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -829,102 +820,102 @@
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>52</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -171,9 +171,6 @@
     <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
   </si>
   <si>
-    <t>Appalachia</t>
-  </si>
-  <si>
     <t>ESHOS (Empire State Hematology Oncology Society)</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
 Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
   </si>
   <si>
-    <t>Delaware.</t>
-  </si>
-  <si>
     <t>OSNJ (Oncology Society of New Jersey)</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
   </si>
   <si>
     <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
-  </si>
-  <si>
-    <t>Northeast.</t>
   </si>
   <si>
     <t>Yes, 
@@ -265,6 +256,15 @@
   </si>
   <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Delaware</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,7 +786,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -813,112 +813,112 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="2">
-        <v>1104</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
+        <v>649</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2">
-        <v>1649</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -636,7 +636,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,7 +786,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -821,7 +821,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="2">
-        <v>104</v>
+        <v>1104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
@@ -856,7 +856,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="2">
-        <v>649</v>
+        <v>1649</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -891,7 +891,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="2">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>70</v>
